--- a/plate_labels.xlsx
+++ b/plate_labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AC4B47-4C4D-5E45-9319-F89CA650FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A55D6A-09C8-8C4B-A454-408053AB3B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{4632A5A4-EB87-F741-A635-F3D18EF801AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Antibiotic</t>
   </si>
@@ -135,13 +135,25 @@
   </si>
   <si>
     <t>Hendry Lab Plate Labels</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Chloramphenicol</t>
+  </si>
+  <si>
+    <t>red x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yellow x1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +210,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFEA0004"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFEECD15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,16 +488,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,6 +511,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEECD15"/>
       <color rgb="FF813400"/>
       <color rgb="FFFF8200"/>
     </mruColors>
@@ -819,15 +847,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -837,14 +865,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -867,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -883,7 +911,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -899,7 +927,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -915,7 +943,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -931,7 +959,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -940,7 +968,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -949,7 +977,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -958,7 +986,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -967,41 +995,71 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="73" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>